--- a/natmiOut/OldD2/LR-pairs_lrc2p/H2-K1-Aplp2.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/H2-K1-Aplp2.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>247.953498606274</v>
+        <v>250.207855</v>
       </c>
       <c r="H2">
-        <v>247.953498606274</v>
+        <v>500.41571</v>
       </c>
       <c r="I2">
-        <v>0.2016437818355425</v>
+        <v>0.1944313714972807</v>
       </c>
       <c r="J2">
-        <v>0.2016437818355425</v>
+        <v>0.1397072982104585</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>202.818713690747</v>
+        <v>202.9414215</v>
       </c>
       <c r="N2">
-        <v>202.818713690747</v>
+        <v>405.882843</v>
       </c>
       <c r="O2">
-        <v>0.3856323639248466</v>
+        <v>0.3783670583467172</v>
       </c>
       <c r="P2">
-        <v>0.3856323639248466</v>
+        <v>0.2965455463648154</v>
       </c>
       <c r="Q2">
-        <v>50289.60964244492</v>
+        <v>50777.53776416588</v>
       </c>
       <c r="R2">
-        <v>50289.60964244492</v>
+        <v>203110.1510566635</v>
       </c>
       <c r="S2">
-        <v>0.07776036825998629</v>
+        <v>0.07356642608374386</v>
       </c>
       <c r="T2">
-        <v>0.07776036825998629</v>
+        <v>0.04142957707897262</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>247.953498606274</v>
+        <v>250.207855</v>
       </c>
       <c r="H3">
-        <v>247.953498606274</v>
+        <v>500.41571</v>
       </c>
       <c r="I3">
-        <v>0.2016437818355425</v>
+        <v>0.1944313714972807</v>
       </c>
       <c r="J3">
-        <v>0.2016437818355425</v>
+        <v>0.1397072982104585</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>30.6458300842126</v>
+        <v>33.369505</v>
       </c>
       <c r="N3">
-        <v>30.6458300842126</v>
+        <v>100.108515</v>
       </c>
       <c r="O3">
-        <v>0.05826890272972503</v>
+        <v>0.062214610265436</v>
       </c>
       <c r="P3">
-        <v>0.05826890272972503</v>
+        <v>0.07314114106677162</v>
       </c>
       <c r="Q3">
-        <v>7598.740787073919</v>
+        <v>8349.312268461774</v>
       </c>
       <c r="R3">
-        <v>7598.740787073919</v>
+        <v>50095.87361077065</v>
       </c>
       <c r="S3">
-        <v>0.01174956190982912</v>
+        <v>0.01209647200107752</v>
       </c>
       <c r="T3">
-        <v>0.01174956190982912</v>
+        <v>0.01021835120646868</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>247.953498606274</v>
+        <v>250.207855</v>
       </c>
       <c r="H4">
-        <v>247.953498606274</v>
+        <v>500.41571</v>
       </c>
       <c r="I4">
-        <v>0.2016437818355425</v>
+        <v>0.1944313714972807</v>
       </c>
       <c r="J4">
-        <v>0.2016437818355425</v>
+        <v>0.1397072982104585</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>59.8679865670641</v>
+        <v>62.879255</v>
       </c>
       <c r="N4">
-        <v>59.8679865670641</v>
+        <v>188.637765</v>
       </c>
       <c r="O4">
-        <v>0.1138308825805908</v>
+        <v>0.1172330348803786</v>
       </c>
       <c r="P4">
-        <v>0.1138308825805908</v>
+        <v>0.1378222559827754</v>
       </c>
       <c r="Q4">
-        <v>14844.47672381696</v>
+        <v>15732.88351754803</v>
       </c>
       <c r="R4">
-        <v>14844.47672381696</v>
+        <v>94397.30110528815</v>
       </c>
       <c r="S4">
-        <v>0.02295328965322791</v>
+        <v>0.02279377975658056</v>
       </c>
       <c r="T4">
-        <v>0.02295328965322791</v>
+        <v>0.01925477501662376</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>247.953498606274</v>
+        <v>250.207855</v>
       </c>
       <c r="H5">
-        <v>247.953498606274</v>
+        <v>500.41571</v>
       </c>
       <c r="I5">
-        <v>0.2016437818355425</v>
+        <v>0.1944313714972807</v>
       </c>
       <c r="J5">
-        <v>0.2016437818355425</v>
+        <v>0.1397072982104585</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>69.5666157854987</v>
+        <v>71.50712866666667</v>
       </c>
       <c r="N5">
-        <v>69.5666157854987</v>
+        <v>214.521386</v>
       </c>
       <c r="O5">
-        <v>0.1322715148293405</v>
+        <v>0.1333189731521955</v>
       </c>
       <c r="P5">
-        <v>0.1322715148293405</v>
+        <v>0.1567333104008722</v>
       </c>
       <c r="Q5">
-        <v>17249.28577021285</v>
+        <v>17891.64528089568</v>
       </c>
       <c r="R5">
-        <v>17249.28577021285</v>
+        <v>107349.8716853741</v>
       </c>
       <c r="S5">
-        <v>0.02667172847930427</v>
+        <v>0.02592139079659051</v>
       </c>
       <c r="T5">
-        <v>0.02667172847930427</v>
+        <v>0.02189678733568701</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>247.953498606274</v>
+        <v>250.207855</v>
       </c>
       <c r="H6">
-        <v>247.953498606274</v>
+        <v>500.41571</v>
       </c>
       <c r="I6">
-        <v>0.2016437818355425</v>
+        <v>0.1944313714972807</v>
       </c>
       <c r="J6">
-        <v>0.2016437818355425</v>
+        <v>0.1397072982104585</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>125.599841549176</v>
+        <v>128.2248636666667</v>
       </c>
       <c r="N6">
-        <v>125.599841549176</v>
+        <v>384.674591</v>
       </c>
       <c r="O6">
-        <v>0.2388111181843307</v>
+        <v>0.239064376872247</v>
       </c>
       <c r="P6">
-        <v>0.2388111181843307</v>
+        <v>0.2810504034060806</v>
       </c>
       <c r="Q6">
-        <v>31142.92013651185</v>
+        <v>32082.8680957041</v>
       </c>
       <c r="R6">
-        <v>31142.92013651185</v>
+        <v>192497.2085742246</v>
       </c>
       <c r="S6">
-        <v>0.04815477701506314</v>
+        <v>0.04648161467141378</v>
       </c>
       <c r="T6">
-        <v>0.04815477701506314</v>
+        <v>0.03926479252082297</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>247.953498606274</v>
+        <v>250.207855</v>
       </c>
       <c r="H7">
-        <v>247.953498606274</v>
+        <v>500.41571</v>
       </c>
       <c r="I7">
-        <v>0.2016437818355425</v>
+        <v>0.1944313714972807</v>
       </c>
       <c r="J7">
-        <v>0.2016437818355425</v>
+        <v>0.1397072982104585</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>37.4390109563028</v>
+        <v>37.439058</v>
       </c>
       <c r="N7">
-        <v>37.4390109563028</v>
+        <v>74.87811600000001</v>
       </c>
       <c r="O7">
-        <v>0.07118521775116632</v>
+        <v>0.06980194648302557</v>
       </c>
       <c r="P7">
-        <v>0.07118521775116632</v>
+        <v>0.05470734277868461</v>
       </c>
       <c r="Q7">
-        <v>9283.133750973904</v>
+        <v>9367.54639540059</v>
       </c>
       <c r="R7">
-        <v>9283.133750973904</v>
+        <v>37470.18558160236</v>
       </c>
       <c r="S7">
-        <v>0.01435405651813177</v>
+        <v>0.01357168818787445</v>
       </c>
       <c r="T7">
-        <v>0.01435405651813177</v>
+        <v>0.007643015051883465</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>41.1052838342055</v>
+        <v>44.51802933333334</v>
       </c>
       <c r="H8">
-        <v>41.1052838342055</v>
+        <v>133.554088</v>
       </c>
       <c r="I8">
-        <v>0.033428142503906</v>
+        <v>0.03459404381863301</v>
       </c>
       <c r="J8">
-        <v>0.033428142503906</v>
+        <v>0.03728596130493549</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>202.818713690747</v>
+        <v>202.9414215</v>
       </c>
       <c r="N8">
-        <v>202.818713690747</v>
+        <v>405.882843</v>
       </c>
       <c r="O8">
-        <v>0.3856323639248466</v>
+        <v>0.3783670583467172</v>
       </c>
       <c r="P8">
-        <v>0.3856323639248466</v>
+        <v>0.2965455463648154</v>
       </c>
       <c r="Q8">
-        <v>8336.920793146615</v>
+        <v>9034.552155285364</v>
       </c>
       <c r="R8">
-        <v>8336.920793146615</v>
+        <v>54207.31293171219</v>
       </c>
       <c r="S8">
-        <v>0.01289097361539791</v>
+        <v>0.01308924659597361</v>
       </c>
       <c r="T8">
-        <v>0.01289097361539791</v>
+        <v>0.01105698576690946</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>41.1052838342055</v>
+        <v>44.51802933333334</v>
       </c>
       <c r="H9">
-        <v>41.1052838342055</v>
+        <v>133.554088</v>
       </c>
       <c r="I9">
-        <v>0.033428142503906</v>
+        <v>0.03459404381863301</v>
       </c>
       <c r="J9">
-        <v>0.033428142503906</v>
+        <v>0.03728596130493549</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>30.6458300842126</v>
+        <v>33.369505</v>
       </c>
       <c r="N9">
-        <v>30.6458300842126</v>
+        <v>100.108515</v>
       </c>
       <c r="O9">
-        <v>0.05826890272972503</v>
+        <v>0.062214610265436</v>
       </c>
       <c r="P9">
-        <v>0.05826890272972503</v>
+        <v>0.07314114106677162</v>
       </c>
       <c r="Q9">
-        <v>1259.705543946393</v>
+        <v>1485.544602428813</v>
       </c>
       <c r="R9">
-        <v>1259.705543946393</v>
+        <v>13369.90142185932</v>
       </c>
       <c r="S9">
-        <v>0.001947821183995486</v>
+        <v>0.002152254953681668</v>
       </c>
       <c r="T9">
-        <v>0.001947821183995486</v>
+        <v>0.002727137755614475</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>41.1052838342055</v>
+        <v>44.51802933333334</v>
       </c>
       <c r="H10">
-        <v>41.1052838342055</v>
+        <v>133.554088</v>
       </c>
       <c r="I10">
-        <v>0.033428142503906</v>
+        <v>0.03459404381863301</v>
       </c>
       <c r="J10">
-        <v>0.033428142503906</v>
+        <v>0.03728596130493549</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>59.8679865670641</v>
+        <v>62.879255</v>
       </c>
       <c r="N10">
-        <v>59.8679865670641</v>
+        <v>188.637765</v>
       </c>
       <c r="O10">
-        <v>0.1138308825805908</v>
+        <v>0.1172330348803786</v>
       </c>
       <c r="P10">
-        <v>0.1138308825805908</v>
+        <v>0.1378222559827754</v>
       </c>
       <c r="Q10">
-        <v>2460.890580421572</v>
+        <v>2799.260518548147</v>
       </c>
       <c r="R10">
-        <v>2460.890580421572</v>
+        <v>25193.34466693332</v>
       </c>
       <c r="S10">
-        <v>0.003805154964249382</v>
+        <v>0.004055564745643149</v>
       </c>
       <c r="T10">
-        <v>0.003805154964249382</v>
+        <v>0.005138835303532679</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>41.1052838342055</v>
+        <v>44.51802933333334</v>
       </c>
       <c r="H11">
-        <v>41.1052838342055</v>
+        <v>133.554088</v>
       </c>
       <c r="I11">
-        <v>0.033428142503906</v>
+        <v>0.03459404381863301</v>
       </c>
       <c r="J11">
-        <v>0.033428142503906</v>
+        <v>0.03728596130493549</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>69.5666157854987</v>
+        <v>71.50712866666667</v>
       </c>
       <c r="N11">
-        <v>69.5666157854987</v>
+        <v>214.521386</v>
       </c>
       <c r="O11">
-        <v>0.1322715148293405</v>
+        <v>0.1333189731521955</v>
       </c>
       <c r="P11">
-        <v>0.1322715148293405</v>
+        <v>0.1567333104008722</v>
       </c>
       <c r="Q11">
-        <v>2859.555487248045</v>
+        <v>3183.356451525108</v>
       </c>
       <c r="R11">
-        <v>2859.555487248045</v>
+        <v>28650.20806372597</v>
       </c>
       <c r="S11">
-        <v>0.004421591046922711</v>
+        <v>0.004612042399082208</v>
       </c>
       <c r="T11">
-        <v>0.004421591046922711</v>
+        <v>0.005843952146801364</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>41.1052838342055</v>
+        <v>44.51802933333334</v>
       </c>
       <c r="H12">
-        <v>41.1052838342055</v>
+        <v>133.554088</v>
       </c>
       <c r="I12">
-        <v>0.033428142503906</v>
+        <v>0.03459404381863301</v>
       </c>
       <c r="J12">
-        <v>0.033428142503906</v>
+        <v>0.03728596130493549</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>125.599841549176</v>
+        <v>128.2248636666667</v>
       </c>
       <c r="N12">
-        <v>125.599841549176</v>
+        <v>384.674591</v>
       </c>
       <c r="O12">
-        <v>0.2388111181843307</v>
+        <v>0.239064376872247</v>
       </c>
       <c r="P12">
-        <v>0.2388111181843307</v>
+        <v>0.2810504034060806</v>
       </c>
       <c r="Q12">
-        <v>5162.817136410117</v>
+        <v>5708.318241975335</v>
       </c>
       <c r="R12">
-        <v>5162.817136410117</v>
+        <v>51374.86417777801</v>
       </c>
       <c r="S12">
-        <v>0.007983012090182946</v>
+        <v>0.008270203528992709</v>
       </c>
       <c r="T12">
-        <v>0.007983012090182946</v>
+        <v>0.01047923446613563</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>41.1052838342055</v>
+        <v>44.51802933333334</v>
       </c>
       <c r="H13">
-        <v>41.1052838342055</v>
+        <v>133.554088</v>
       </c>
       <c r="I13">
-        <v>0.033428142503906</v>
+        <v>0.03459404381863301</v>
       </c>
       <c r="J13">
-        <v>0.033428142503906</v>
+        <v>0.03728596130493549</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>37.4390109563028</v>
+        <v>37.439058</v>
       </c>
       <c r="N13">
-        <v>37.4390109563028</v>
+        <v>74.87811600000001</v>
       </c>
       <c r="O13">
-        <v>0.07118521775116632</v>
+        <v>0.06980194648302557</v>
       </c>
       <c r="P13">
-        <v>0.07118521775116632</v>
+        <v>0.05470734277868461</v>
       </c>
       <c r="Q13">
-        <v>1538.941171830756</v>
+        <v>1666.713082256368</v>
       </c>
       <c r="R13">
-        <v>1538.941171830756</v>
+        <v>10000.27849353821</v>
       </c>
       <c r="S13">
-        <v>0.002379589603157567</v>
+        <v>0.002414731595259663</v>
       </c>
       <c r="T13">
-        <v>0.002379589603157567</v>
+        <v>0.002039815865941876</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>211.206330465796</v>
+        <v>247.50059</v>
       </c>
       <c r="H14">
-        <v>211.206330465796</v>
+        <v>742.5017700000001</v>
       </c>
       <c r="I14">
-        <v>0.1717597995677277</v>
+        <v>0.1923276116174936</v>
       </c>
       <c r="J14">
-        <v>0.1717597995677277</v>
+        <v>0.2072934844575189</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>202.818713690747</v>
+        <v>202.9414215</v>
       </c>
       <c r="N14">
-        <v>202.818713690747</v>
+        <v>405.882843</v>
       </c>
       <c r="O14">
-        <v>0.3856323639248466</v>
+        <v>0.3783670583467172</v>
       </c>
       <c r="P14">
-        <v>0.3856323639248466</v>
+        <v>0.2965455463648154</v>
       </c>
       <c r="Q14">
-        <v>42836.59626841557</v>
+        <v>50228.12155668869</v>
       </c>
       <c r="R14">
-        <v>42836.59626841557</v>
+        <v>301368.7293401322</v>
       </c>
       <c r="S14">
-        <v>0.06623613753456066</v>
+        <v>0.072770432646561</v>
       </c>
       <c r="T14">
-        <v>0.06623613753456066</v>
+        <v>0.06147195960632131</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>211.206330465796</v>
+        <v>247.50059</v>
       </c>
       <c r="H15">
-        <v>211.206330465796</v>
+        <v>742.5017700000001</v>
       </c>
       <c r="I15">
-        <v>0.1717597995677277</v>
+        <v>0.1923276116174936</v>
       </c>
       <c r="J15">
-        <v>0.1717597995677277</v>
+        <v>0.2072934844575189</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>30.6458300842126</v>
+        <v>33.369505</v>
       </c>
       <c r="N15">
-        <v>30.6458300842126</v>
+        <v>100.108515</v>
       </c>
       <c r="O15">
-        <v>0.05826890272972503</v>
+        <v>0.062214610265436</v>
       </c>
       <c r="P15">
-        <v>0.05826890272972503</v>
+        <v>0.07314114106677162</v>
       </c>
       <c r="Q15">
-        <v>6472.593316164839</v>
+        <v>8258.97217550795</v>
       </c>
       <c r="R15">
-        <v>6472.593316164839</v>
+        <v>74330.74957957155</v>
       </c>
       <c r="S15">
-        <v>0.01000825505388899</v>
+        <v>0.01196558740006451</v>
       </c>
       <c r="T15">
-        <v>0.01000825505388899</v>
+        <v>0.01516168198893002</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>211.206330465796</v>
+        <v>247.50059</v>
       </c>
       <c r="H16">
-        <v>211.206330465796</v>
+        <v>742.5017700000001</v>
       </c>
       <c r="I16">
-        <v>0.1717597995677277</v>
+        <v>0.1923276116174936</v>
       </c>
       <c r="J16">
-        <v>0.1717597995677277</v>
+        <v>0.2072934844575189</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>59.8679865670641</v>
+        <v>62.879255</v>
       </c>
       <c r="N16">
-        <v>59.8679865670641</v>
+        <v>188.637765</v>
       </c>
       <c r="O16">
-        <v>0.1138308825805908</v>
+        <v>0.1172330348803786</v>
       </c>
       <c r="P16">
-        <v>0.1138308825805908</v>
+        <v>0.1378222559827754</v>
       </c>
       <c r="Q16">
-        <v>12644.49775520518</v>
+        <v>15562.65271126045</v>
       </c>
       <c r="R16">
-        <v>12644.49775520518</v>
+        <v>140063.8744013441</v>
       </c>
       <c r="S16">
-        <v>0.01955156957665983</v>
+        <v>0.02254714960121354</v>
       </c>
       <c r="T16">
-        <v>0.01955156957665983</v>
+        <v>0.02856965567846565</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>211.206330465796</v>
+        <v>247.50059</v>
       </c>
       <c r="H17">
-        <v>211.206330465796</v>
+        <v>742.5017700000001</v>
       </c>
       <c r="I17">
-        <v>0.1717597995677277</v>
+        <v>0.1923276116174936</v>
       </c>
       <c r="J17">
-        <v>0.1717597995677277</v>
+        <v>0.2072934844575189</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>69.5666157854987</v>
+        <v>71.50712866666667</v>
       </c>
       <c r="N17">
-        <v>69.5666157854987</v>
+        <v>214.521386</v>
       </c>
       <c r="O17">
-        <v>0.1322715148293405</v>
+        <v>0.1333189731521955</v>
       </c>
       <c r="P17">
-        <v>0.1322715148293405</v>
+        <v>0.1567333104008722</v>
       </c>
       <c r="Q17">
-        <v>14692.9096429791</v>
+        <v>17698.05653420592</v>
       </c>
       <c r="R17">
-        <v>14692.9096429791</v>
+        <v>159282.5088078532</v>
       </c>
       <c r="S17">
-        <v>0.02271892887560725</v>
+        <v>0.02564091968965852</v>
       </c>
       <c r="T17">
-        <v>0.02271892887560725</v>
+        <v>0.03248979404355869</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>211.206330465796</v>
+        <v>247.50059</v>
       </c>
       <c r="H18">
-        <v>211.206330465796</v>
+        <v>742.5017700000001</v>
       </c>
       <c r="I18">
-        <v>0.1717597995677277</v>
+        <v>0.1923276116174936</v>
       </c>
       <c r="J18">
-        <v>0.1717597995677277</v>
+        <v>0.2072934844575189</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>125.599841549176</v>
+        <v>128.2248636666667</v>
       </c>
       <c r="N18">
-        <v>125.599841549176</v>
+        <v>384.674591</v>
       </c>
       <c r="O18">
-        <v>0.2388111181843307</v>
+        <v>0.239064376872247</v>
       </c>
       <c r="P18">
-        <v>0.2388111181843307</v>
+        <v>0.2810504034060806</v>
       </c>
       <c r="Q18">
-        <v>26527.48164068688</v>
+        <v>31735.72941016957</v>
       </c>
       <c r="R18">
-        <v>26527.48164068688</v>
+        <v>285621.5646915261</v>
       </c>
       <c r="S18">
-        <v>0.04101814979388557</v>
+        <v>0.04597868062666365</v>
       </c>
       <c r="T18">
-        <v>0.04101814979388557</v>
+        <v>0.05825991743023779</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>211.206330465796</v>
+        <v>247.50059</v>
       </c>
       <c r="H19">
-        <v>211.206330465796</v>
+        <v>742.5017700000001</v>
       </c>
       <c r="I19">
-        <v>0.1717597995677277</v>
+        <v>0.1923276116174936</v>
       </c>
       <c r="J19">
-        <v>0.1717597995677277</v>
+        <v>0.2072934844575189</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>37.4390109563028</v>
+        <v>37.439058</v>
       </c>
       <c r="N19">
-        <v>37.4390109563028</v>
+        <v>74.87811600000001</v>
       </c>
       <c r="O19">
-        <v>0.07118521775116632</v>
+        <v>0.06980194648302557</v>
       </c>
       <c r="P19">
-        <v>0.07118521775116632</v>
+        <v>0.05470734277868461</v>
       </c>
       <c r="Q19">
-        <v>7907.356120349446</v>
+        <v>9266.188944044221</v>
       </c>
       <c r="R19">
-        <v>7907.356120349446</v>
+        <v>55597.13366426533</v>
       </c>
       <c r="S19">
-        <v>0.01222675873312538</v>
+        <v>0.01342484165333242</v>
       </c>
       <c r="T19">
-        <v>0.01222675873312538</v>
+        <v>0.01134047571000542</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>529.7786517547451</v>
+        <v>530.364502</v>
       </c>
       <c r="H20">
-        <v>529.7786517547451</v>
+        <v>1591.093506</v>
       </c>
       <c r="I20">
-        <v>0.4308330855423494</v>
+        <v>0.4121353325111727</v>
       </c>
       <c r="J20">
-        <v>0.4308330855423494</v>
+        <v>0.4442054285695107</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>202.818713690747</v>
+        <v>202.9414215</v>
       </c>
       <c r="N20">
-        <v>202.818713690747</v>
+        <v>405.882843</v>
       </c>
       <c r="O20">
-        <v>0.3856323639248466</v>
+        <v>0.3783670583467172</v>
       </c>
       <c r="P20">
-        <v>0.3856323639248466</v>
+        <v>0.2965455463648154</v>
       </c>
       <c r="Q20">
-        <v>107449.0246897156</v>
+        <v>107632.9259490196</v>
       </c>
       <c r="R20">
-        <v>107449.0246897156</v>
+        <v>645797.5556941176</v>
       </c>
       <c r="S20">
-        <v>0.1661431812347318</v>
+        <v>0.1559384334029986</v>
       </c>
       <c r="T20">
-        <v>0.1661431812347318</v>
+        <v>0.1317271415133625</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>529.7786517547451</v>
+        <v>530.364502</v>
       </c>
       <c r="H21">
-        <v>529.7786517547451</v>
+        <v>1591.093506</v>
       </c>
       <c r="I21">
-        <v>0.4308330855423494</v>
+        <v>0.4121353325111727</v>
       </c>
       <c r="J21">
-        <v>0.4308330855423494</v>
+        <v>0.4442054285695107</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>30.6458300842126</v>
+        <v>33.369505</v>
       </c>
       <c r="N21">
-        <v>30.6458300842126</v>
+        <v>100.108515</v>
       </c>
       <c r="O21">
-        <v>0.05826890272972503</v>
+        <v>0.062214610265436</v>
       </c>
       <c r="P21">
-        <v>0.05826890272972503</v>
+        <v>0.07314114106677162</v>
       </c>
       <c r="Q21">
-        <v>16235.50654391916</v>
+        <v>17698.00090131151</v>
       </c>
       <c r="R21">
-        <v>16235.50654391916</v>
+        <v>159282.0081118036</v>
       </c>
       <c r="S21">
-        <v>0.02510417115421446</v>
+        <v>0.02564083908879848</v>
       </c>
       <c r="T21">
-        <v>0.02510417115421446</v>
+        <v>0.03248969191362833</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>529.7786517547451</v>
+        <v>530.364502</v>
       </c>
       <c r="H22">
-        <v>529.7786517547451</v>
+        <v>1591.093506</v>
       </c>
       <c r="I22">
-        <v>0.4308330855423494</v>
+        <v>0.4121353325111727</v>
       </c>
       <c r="J22">
-        <v>0.4308330855423494</v>
+        <v>0.4442054285695107</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>59.8679865670641</v>
+        <v>62.879255</v>
       </c>
       <c r="N22">
-        <v>59.8679865670641</v>
+        <v>188.637765</v>
       </c>
       <c r="O22">
-        <v>0.1138308825805908</v>
+        <v>0.1172330348803786</v>
       </c>
       <c r="P22">
-        <v>0.1138308825805908</v>
+        <v>0.1378222559827754</v>
       </c>
       <c r="Q22">
-        <v>31716.78120677041</v>
+        <v>33348.92476420601</v>
       </c>
       <c r="R22">
-        <v>31716.78120677041</v>
+        <v>300140.3228778541</v>
       </c>
       <c r="S22">
-        <v>0.04904211037220483</v>
+        <v>0.04831587581171874</v>
       </c>
       <c r="T22">
-        <v>0.04904211037220483</v>
+        <v>0.06122139428524558</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>529.7786517547451</v>
+        <v>530.364502</v>
       </c>
       <c r="H23">
-        <v>529.7786517547451</v>
+        <v>1591.093506</v>
       </c>
       <c r="I23">
-        <v>0.4308330855423494</v>
+        <v>0.4121353325111727</v>
       </c>
       <c r="J23">
-        <v>0.4308330855423494</v>
+        <v>0.4442054285695107</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>69.5666157854987</v>
+        <v>71.50712866666667</v>
       </c>
       <c r="N23">
-        <v>69.5666157854987</v>
+        <v>214.521386</v>
       </c>
       <c r="O23">
-        <v>0.1322715148293405</v>
+        <v>0.1333189731521955</v>
       </c>
       <c r="P23">
-        <v>0.1322715148293405</v>
+        <v>0.1567333104008722</v>
       </c>
       <c r="Q23">
-        <v>36854.90791798187</v>
+        <v>37924.8426847466</v>
       </c>
       <c r="R23">
-        <v>36854.90791798187</v>
+        <v>341323.5841627194</v>
       </c>
       <c r="S23">
-        <v>0.05698694486328541</v>
+        <v>0.05494545933012819</v>
       </c>
       <c r="T23">
-        <v>0.05698694486328541</v>
+        <v>0.06962178731773758</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>529.7786517547451</v>
+        <v>530.364502</v>
       </c>
       <c r="H24">
-        <v>529.7786517547451</v>
+        <v>1591.093506</v>
       </c>
       <c r="I24">
-        <v>0.4308330855423494</v>
+        <v>0.4121353325111727</v>
       </c>
       <c r="J24">
-        <v>0.4308330855423494</v>
+        <v>0.4442054285695107</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>125.599841549176</v>
+        <v>128.2248636666667</v>
       </c>
       <c r="N24">
-        <v>125.599841549176</v>
+        <v>384.674591</v>
       </c>
       <c r="O24">
-        <v>0.2388111181843307</v>
+        <v>0.239064376872247</v>
       </c>
       <c r="P24">
-        <v>0.2388111181843307</v>
+        <v>0.2810504034060806</v>
       </c>
       <c r="Q24">
-        <v>66540.11471653207</v>
+        <v>68005.91596258956</v>
       </c>
       <c r="R24">
-        <v>66540.11471653207</v>
+        <v>612053.243663306</v>
       </c>
       <c r="S24">
-        <v>0.1028877309091739</v>
+        <v>0.09852687645381983</v>
       </c>
       <c r="T24">
-        <v>0.1028877309091739</v>
+        <v>0.1248441148946319</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>529.7786517547451</v>
+        <v>530.364502</v>
       </c>
       <c r="H25">
-        <v>529.7786517547451</v>
+        <v>1591.093506</v>
       </c>
       <c r="I25">
-        <v>0.4308330855423494</v>
+        <v>0.4121353325111727</v>
       </c>
       <c r="J25">
-        <v>0.4308330855423494</v>
+        <v>0.4442054285695107</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>37.4390109563028</v>
+        <v>37.439058</v>
       </c>
       <c r="N25">
-        <v>37.4390109563028</v>
+        <v>74.87811600000001</v>
       </c>
       <c r="O25">
-        <v>0.07118521775116632</v>
+        <v>0.06980194648302557</v>
       </c>
       <c r="P25">
-        <v>0.07118521775116632</v>
+        <v>0.05470734277868461</v>
       </c>
       <c r="Q25">
-        <v>19834.38874746123</v>
+        <v>19856.34735151912</v>
       </c>
       <c r="R25">
-        <v>19834.38874746123</v>
+        <v>119138.0841091147</v>
       </c>
       <c r="S25">
-        <v>0.03066894700873901</v>
+        <v>0.02876784842370882</v>
       </c>
       <c r="T25">
-        <v>0.03066894700873901</v>
+        <v>0.02430129864490473</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>171.396091490826</v>
+        <v>185.7640076666667</v>
       </c>
       <c r="H26">
-        <v>171.396091490826</v>
+        <v>557.292023</v>
       </c>
       <c r="I26">
-        <v>0.1393848293099515</v>
+        <v>0.144353384850613</v>
       </c>
       <c r="J26">
-        <v>0.1393848293099515</v>
+        <v>0.1555861682431407</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>202.818713690747</v>
+        <v>202.9414215</v>
       </c>
       <c r="N26">
-        <v>202.818713690747</v>
+        <v>405.882843</v>
       </c>
       <c r="O26">
-        <v>0.3856323639248466</v>
+        <v>0.3783670583467172</v>
       </c>
       <c r="P26">
-        <v>0.3856323639248466</v>
+        <v>0.2965455463648154</v>
       </c>
       <c r="Q26">
-        <v>34762.33480779091</v>
+        <v>37699.21177941023</v>
       </c>
       <c r="R26">
-        <v>34762.33480779091</v>
+        <v>226195.2706764614</v>
       </c>
       <c r="S26">
-        <v>0.05375130122205785</v>
+        <v>0.05461856558831801</v>
       </c>
       <c r="T26">
-        <v>0.05375130122205785</v>
+        <v>0.04613838526847025</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>171.396091490826</v>
+        <v>185.7640076666667</v>
       </c>
       <c r="H27">
-        <v>171.396091490826</v>
+        <v>557.292023</v>
       </c>
       <c r="I27">
-        <v>0.1393848293099515</v>
+        <v>0.144353384850613</v>
       </c>
       <c r="J27">
-        <v>0.1393848293099515</v>
+        <v>0.1555861682431407</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>30.6458300842126</v>
+        <v>33.369505</v>
       </c>
       <c r="N27">
-        <v>30.6458300842126</v>
+        <v>100.108515</v>
       </c>
       <c r="O27">
-        <v>0.05826890272972503</v>
+        <v>0.062214610265436</v>
       </c>
       <c r="P27">
-        <v>0.05826890272972503</v>
+        <v>0.07314114106677162</v>
       </c>
       <c r="Q27">
-        <v>5252.575496926011</v>
+        <v>6198.852982652871</v>
       </c>
       <c r="R27">
-        <v>5252.575496926011</v>
+        <v>55789.67684387584</v>
       </c>
       <c r="S27">
-        <v>0.00812180106106089</v>
+        <v>0.008980889578977379</v>
       </c>
       <c r="T27">
-        <v>0.00812180106106089</v>
+        <v>0.01137974987951002</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>171.396091490826</v>
+        <v>185.7640076666667</v>
       </c>
       <c r="H28">
-        <v>171.396091490826</v>
+        <v>557.292023</v>
       </c>
       <c r="I28">
-        <v>0.1393848293099515</v>
+        <v>0.144353384850613</v>
       </c>
       <c r="J28">
-        <v>0.1393848293099515</v>
+        <v>0.1555861682431407</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>59.8679865670641</v>
+        <v>62.879255</v>
       </c>
       <c r="N28">
-        <v>59.8679865670641</v>
+        <v>188.637765</v>
       </c>
       <c r="O28">
-        <v>0.1138308825805908</v>
+        <v>0.1172330348803786</v>
       </c>
       <c r="P28">
-        <v>0.1138308825805908</v>
+        <v>0.1378222559827754</v>
       </c>
       <c r="Q28">
-        <v>10261.13890302006</v>
+        <v>11680.70240789429</v>
       </c>
       <c r="R28">
-        <v>10261.13890302006</v>
+        <v>105126.3216710486</v>
       </c>
       <c r="S28">
-        <v>0.01586629813869679</v>
+        <v>0.01692298540129263</v>
       </c>
       <c r="T28">
-        <v>0.01586629813869679</v>
+        <v>0.0214432367069853</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>171.396091490826</v>
+        <v>185.7640076666667</v>
       </c>
       <c r="H29">
-        <v>171.396091490826</v>
+        <v>557.292023</v>
       </c>
       <c r="I29">
-        <v>0.1393848293099515</v>
+        <v>0.144353384850613</v>
       </c>
       <c r="J29">
-        <v>0.1393848293099515</v>
+        <v>0.1555861682431407</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>69.5666157854987</v>
+        <v>71.50712866666667</v>
       </c>
       <c r="N29">
-        <v>69.5666157854987</v>
+        <v>214.521386</v>
       </c>
       <c r="O29">
-        <v>0.1322715148293405</v>
+        <v>0.1333189731521955</v>
       </c>
       <c r="P29">
-        <v>0.1322715148293405</v>
+        <v>0.1567333104008722</v>
       </c>
       <c r="Q29">
-        <v>11923.44604387848</v>
+        <v>13283.45079785599</v>
       </c>
       <c r="R29">
-        <v>11923.44604387848</v>
+        <v>119551.0571807039</v>
       </c>
       <c r="S29">
-        <v>0.01843664251705635</v>
+        <v>0.01924504503932741</v>
       </c>
       <c r="T29">
-        <v>0.01843664251705635</v>
+        <v>0.02438553520133449</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>171.396091490826</v>
+        <v>185.7640076666667</v>
       </c>
       <c r="H30">
-        <v>171.396091490826</v>
+        <v>557.292023</v>
       </c>
       <c r="I30">
-        <v>0.1393848293099515</v>
+        <v>0.144353384850613</v>
       </c>
       <c r="J30">
-        <v>0.1393848293099515</v>
+        <v>0.1555861682431407</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>125.599841549176</v>
+        <v>128.2248636666667</v>
       </c>
       <c r="N30">
-        <v>125.599841549176</v>
+        <v>384.674591</v>
       </c>
       <c r="O30">
-        <v>0.2388111181843307</v>
+        <v>0.239064376872247</v>
       </c>
       <c r="P30">
-        <v>0.2388111181843307</v>
+        <v>0.2810504034060806</v>
       </c>
       <c r="Q30">
-        <v>21527.32193339582</v>
+        <v>23819.56455723195</v>
       </c>
       <c r="R30">
-        <v>21527.32193339582</v>
+        <v>214376.0810150875</v>
       </c>
       <c r="S30">
-        <v>0.0332866469454416</v>
+        <v>0.03450975199871145</v>
       </c>
       <c r="T30">
-        <v>0.0332866469454416</v>
+        <v>0.04372755534914102</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>171.396091490826</v>
+        <v>185.7640076666667</v>
       </c>
       <c r="H31">
-        <v>171.396091490826</v>
+        <v>557.292023</v>
       </c>
       <c r="I31">
-        <v>0.1393848293099515</v>
+        <v>0.144353384850613</v>
       </c>
       <c r="J31">
-        <v>0.1393848293099515</v>
+        <v>0.1555861682431407</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>37.4390109563028</v>
+        <v>37.439058</v>
       </c>
       <c r="N31">
-        <v>37.4390109563028</v>
+        <v>74.87811600000001</v>
       </c>
       <c r="O31">
-        <v>0.07118521775116632</v>
+        <v>0.06980194648302557</v>
       </c>
       <c r="P31">
-        <v>0.07118521775116632</v>
+        <v>0.05470734277868461</v>
       </c>
       <c r="Q31">
-        <v>6416.900147192512</v>
+        <v>6954.829457344778</v>
       </c>
       <c r="R31">
-        <v>6416.900147192512</v>
+        <v>41728.97674406867</v>
       </c>
       <c r="S31">
-        <v>0.009922139425638047</v>
+        <v>0.01007614724398608</v>
       </c>
       <c r="T31">
-        <v>0.009922139425638047</v>
+        <v>0.008511705837699592</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>28.2211646303415</v>
+        <v>28.5147895</v>
       </c>
       <c r="H32">
-        <v>28.2211646303415</v>
+        <v>57.029579</v>
       </c>
       <c r="I32">
-        <v>0.02295036124052302</v>
+        <v>0.02215825570480695</v>
       </c>
       <c r="J32">
-        <v>0.02295036124052302</v>
+        <v>0.01592165921443574</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>202.818713690747</v>
+        <v>202.9414215</v>
       </c>
       <c r="N32">
-        <v>202.818713690747</v>
+        <v>405.882843</v>
       </c>
       <c r="O32">
-        <v>0.3856323639248466</v>
+        <v>0.3783670583467172</v>
       </c>
       <c r="P32">
-        <v>0.3856323639248466</v>
+        <v>0.2965455463648154</v>
       </c>
       <c r="Q32">
-        <v>5723.780309180668</v>
+        <v>5786.831914903274</v>
       </c>
       <c r="R32">
-        <v>5723.780309180668</v>
+        <v>23147.3276596131</v>
       </c>
       <c r="S32">
-        <v>0.008850402058112069</v>
+        <v>0.008383954029122171</v>
       </c>
       <c r="T32">
-        <v>0.008850402058112069</v>
+        <v>0.004721497130779243</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>28.2211646303415</v>
+        <v>28.5147895</v>
       </c>
       <c r="H33">
-        <v>28.2211646303415</v>
+        <v>57.029579</v>
       </c>
       <c r="I33">
-        <v>0.02295036124052302</v>
+        <v>0.02215825570480695</v>
       </c>
       <c r="J33">
-        <v>0.02295036124052302</v>
+        <v>0.01592165921443574</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>30.6458300842126</v>
+        <v>33.369505</v>
       </c>
       <c r="N33">
-        <v>30.6458300842126</v>
+        <v>100.108515</v>
       </c>
       <c r="O33">
-        <v>0.05826890272972503</v>
+        <v>0.062214610265436</v>
       </c>
       <c r="P33">
-        <v>0.05826890272972503</v>
+        <v>0.07314114106677162</v>
       </c>
       <c r="Q33">
-        <v>864.8610160400361</v>
+        <v>951.5244107941974</v>
       </c>
       <c r="R33">
-        <v>864.8610160400361</v>
+        <v>5709.146464765185</v>
       </c>
       <c r="S33">
-        <v>0.001337292366736088</v>
+        <v>0.001378567242836438</v>
       </c>
       <c r="T33">
-        <v>0.001337292366736088</v>
+        <v>0.001164528322620109</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>28.2211646303415</v>
+        <v>28.5147895</v>
       </c>
       <c r="H34">
-        <v>28.2211646303415</v>
+        <v>57.029579</v>
       </c>
       <c r="I34">
-        <v>0.02295036124052302</v>
+        <v>0.02215825570480695</v>
       </c>
       <c r="J34">
-        <v>0.02295036124052302</v>
+        <v>0.01592165921443574</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>59.8679865670641</v>
+        <v>62.879255</v>
       </c>
       <c r="N34">
-        <v>59.8679865670641</v>
+        <v>188.637765</v>
       </c>
       <c r="O34">
-        <v>0.1138308825805908</v>
+        <v>0.1172330348803786</v>
       </c>
       <c r="P34">
-        <v>0.1138308825805908</v>
+        <v>0.1378222559827754</v>
       </c>
       <c r="Q34">
-        <v>1689.54430499619</v>
+        <v>1792.988720241822</v>
       </c>
       <c r="R34">
-        <v>1689.54430499619</v>
+        <v>10757.93232145093</v>
       </c>
       <c r="S34">
-        <v>0.00261245987555212</v>
+        <v>0.002597679563929981</v>
       </c>
       <c r="T34">
-        <v>0.00261245987555212</v>
+        <v>0.002194358991922478</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>28.2211646303415</v>
+        <v>28.5147895</v>
       </c>
       <c r="H35">
-        <v>28.2211646303415</v>
+        <v>57.029579</v>
       </c>
       <c r="I35">
-        <v>0.02295036124052302</v>
+        <v>0.02215825570480695</v>
       </c>
       <c r="J35">
-        <v>0.02295036124052302</v>
+        <v>0.01592165921443574</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>69.5666157854987</v>
+        <v>71.50712866666667</v>
       </c>
       <c r="N35">
-        <v>69.5666157854987</v>
+        <v>214.521386</v>
       </c>
       <c r="O35">
-        <v>0.1322715148293405</v>
+        <v>0.1333189731521955</v>
       </c>
       <c r="P35">
-        <v>0.1322715148293405</v>
+        <v>0.1567333104008722</v>
       </c>
       <c r="Q35">
-        <v>1963.250916858273</v>
+        <v>2039.010721679416</v>
       </c>
       <c r="R35">
-        <v>1963.250916858273</v>
+        <v>12234.06433007649</v>
       </c>
       <c r="S35">
-        <v>0.003035679047164564</v>
+        <v>0.00295411589740864</v>
       </c>
       <c r="T35">
-        <v>0.003035679047164564</v>
+        <v>0.002495454355753063</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>28.2211646303415</v>
+        <v>28.5147895</v>
       </c>
       <c r="H36">
-        <v>28.2211646303415</v>
+        <v>57.029579</v>
       </c>
       <c r="I36">
-        <v>0.02295036124052302</v>
+        <v>0.02215825570480695</v>
       </c>
       <c r="J36">
-        <v>0.02295036124052302</v>
+        <v>0.01592165921443574</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>125.599841549176</v>
+        <v>128.2248636666667</v>
       </c>
       <c r="N36">
-        <v>125.599841549176</v>
+        <v>384.674591</v>
       </c>
       <c r="O36">
-        <v>0.2388111181843307</v>
+        <v>0.239064376872247</v>
       </c>
       <c r="P36">
-        <v>0.2388111181843307</v>
+        <v>0.2810504034060806</v>
       </c>
       <c r="Q36">
-        <v>3544.573805904103</v>
+        <v>3656.304996121198</v>
       </c>
       <c r="R36">
-        <v>3544.573805904103</v>
+        <v>21937.82997672719</v>
       </c>
       <c r="S36">
-        <v>0.005480801430583627</v>
+        <v>0.005297249592645586</v>
       </c>
       <c r="T36">
-        <v>0.005480801430583627</v>
+        <v>0.004474788745111305</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>28.2211646303415</v>
+        <v>28.5147895</v>
       </c>
       <c r="H37">
-        <v>28.2211646303415</v>
+        <v>57.029579</v>
       </c>
       <c r="I37">
-        <v>0.02295036124052302</v>
+        <v>0.02215825570480695</v>
       </c>
       <c r="J37">
-        <v>0.02295036124052302</v>
+        <v>0.01592165921443574</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>37.4390109563028</v>
+        <v>37.439058</v>
       </c>
       <c r="N37">
-        <v>37.4390109563028</v>
+        <v>74.87811600000001</v>
       </c>
       <c r="O37">
-        <v>0.07118521775116632</v>
+        <v>0.06980194648302557</v>
       </c>
       <c r="P37">
-        <v>0.07118521775116632</v>
+        <v>0.05470734277868461</v>
       </c>
       <c r="Q37">
-        <v>1056.572491794981</v>
+        <v>1067.566857948291</v>
       </c>
       <c r="R37">
-        <v>1056.572491794981</v>
+        <v>4270.267431793164</v>
       </c>
       <c r="S37">
-        <v>0.001633726462374559</v>
+        <v>0.001546689378864131</v>
       </c>
       <c r="T37">
-        <v>0.001633726462374559</v>
+        <v>0.0008710316682495383</v>
       </c>
     </row>
   </sheetData>
